--- a/biology/Botanique/Tillandsia_chartacea/Tillandsia_chartacea.xlsx
+++ b/biology/Botanique/Tillandsia_chartacea/Tillandsia_chartacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia chartacea L.B.Sm. est une plante de la famille des Bromeliaceae.
 L'épithète chartacea, signifiant « papyracée, qui a l'aspect du papier », est une référence à l'aspect des bractées florales.
@@ -512,13 +524,15 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia chartacea L.B.Sm., in Contr. U.S. Natl. Herb. 29: 437, fig. 42d-e (1951)
-Diagnose originale[1] :
+Diagnose originale :
 « A T. incarnata H. B. K., cui affinis, scapo validiore, foliis valde majoribus, inflorescentia ramosa differt. »
 Type :
-leg. M.B. &amp; R. Foster, n°1802, 1946-10-09 ; « rocks at Suesca, Department of Cundinamarca, Colombia, altitude 2,580 meters »[1] ; Holotypus GH (Gray Herbarium) (GH 29412)</t>
+leg. M.B. &amp; R. Foster, n°1802, 1946-10-09 ; « rocks at Suesca, Department of Cundinamarca, Colombia, altitude 2,580 meters » ; Holotypus GH (Gray Herbarium) (GH 29412)</t>
         </is>
       </c>
     </row>
@@ -546,7 +560,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,9 +620,11 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante vivace herbacée ; saxicole[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Typologie : plante vivace herbacée ; saxicole.
 Habitat : ?
 Altitude : ?</t>
         </is>
@@ -634,12 +654,14 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du sud :
  Colombie
-Cundinamarca[1]
- Pérou[2]</t>
+Cundinamarca
+ Pérou</t>
         </is>
       </c>
     </row>
@@ -669,10 +691,49 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tillandsia chartacea var. chartacea
-(autonyme)
-Tillandsia chartacea var. peruviana L.B.Sm.
-Tillandsia chartacea var. peruviana L.B.Sm., in Phytologia 4: 218 (1953)
+          <t>Tillandsia chartacea var. chartacea</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(autonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_chartacea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_chartacea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxons infra spécifiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tillandsia chartacea var. peruviana L.B.Sm.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia chartacea var. peruviana L.B.Sm., in Phytologia 4: 218 (1953)
 Diagnose : (à compléter)
 Type :
 leg. E. Cerrate, n° 454, 1949-08-03 ; « Peru. Depto. Ancash. Prov. Bolognesi. Timpoc, a 4 km. abajo de Chiquián. Habitat : Piso subxerofítico. Alt. 2500 m. » ; Holotypus US National Herbarium (US 00089148)
@@ -681,31 +742,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Tillandsia_chartacea</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tillandsia_chartacea</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tillandsia_chartacea</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_chartacea</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
